--- a/города.xlsx
+++ b/города.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Пушкино, Московская обл.</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Казахстан</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -363,10 +369,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -457,6 +463,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/города.xlsx
+++ b/города.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Пушкино, Московская обл.</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Австралия</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,10 +372,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -471,6 +474,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/города.xlsx
+++ b/города.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Пушкино, Московская обл.</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Австралия</t>
+  </si>
+  <si>
+    <t>Лондон</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Сидней</t>
   </si>
 </sst>
 </file>
@@ -361,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -372,10 +381,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -391,28 +400,34 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -420,23 +435,23 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -444,41 +459,57 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>

--- a/города.xlsx
+++ b/города.xlsx
@@ -383,8 +383,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
